--- a/ApplicationPerformance/applicationperformance/one.xlsx
+++ b/ApplicationPerformance/applicationperformance/one.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Pycharm2017\PycharmProjects\ApplicationPerformance\applicationperformance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/PycharmProjects/ApplicationPerformance/applicationperformance/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="0" windowWidth="15795" windowHeight="570" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20240" yWindow="3520" windowWidth="26100" windowHeight="14200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="launchtime" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -94,11 +97,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行monkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行功能性测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <rPh sb="0" eb="1">
+      <t>she'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emulator-5554</t>
+  </si>
+  <si>
+    <t>执行monkey命令</t>
+    <rPh sb="8" eb="9">
+      <t>ming'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emulator-5554</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行用例</t>
+    <rPh sb="0" eb="1">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell monkey -p com.ushaqi.zhuishushenqi --ignore-crashes --ignore-timeouts --ignore-native-crashes --pct-touch 30 -s 1 -v -v --throttle 200 1000 &gt;monkeylog.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi/com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取CPU信息的搜索词</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sou's</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuishushenqi</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,11 +233,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -171,11 +257,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -456,20 +553,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="61.375" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
     <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,14 +582,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -501,10 +600,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -518,14 +620,17 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="D5" s="1"/>
     </row>
@@ -538,52 +643,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="142.5" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
         <v>5</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>